--- a/script/create_ddl.xlsx
+++ b/script/create_ddl.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2585B96-AE58-4351-8F67-C96F4DB68DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="1035" windowWidth="21135" windowHeight="12840" xr2:uid="{F8D8E337-57E0-4018-991C-3AE2B0625CCC}"/>
+    <workbookView xWindow="6930" yWindow="1035" windowWidth="21135" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="1" r:id="rId1"/>
     <sheet name="データ型メモ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>物理名</t>
     <rPh sb="0" eb="3">
@@ -459,13 +458,6 @@
   </si>
   <si>
     <t>DATETIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TIMESTUMP</t>
-  </si>
-  <si>
-    <t>TIMESTUMP</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -567,34 +559,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>追加日時(created_at)や更新日時(updated_at)など記録用の時間を扱うカラムはTIMESTUMP型を使用</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t>コウシンニチジ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>キロクヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>それ以外のカラムで日付を扱う場合はDATE型、時間まで扱い場合はDATETIME型を用いる。</t>
     <rPh sb="2" eb="4">
       <t>イガイ</t>
@@ -793,9 +757,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CURRENT_TIMESTAMP</t>
-  </si>
-  <si>
     <t>レースID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -814,17 +775,97 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>複勝オッズ</t>
+    <t>複勝下限オッズ</t>
     <rPh sb="0" eb="2">
       <t>フクショウ</t>
     </rPh>
+    <rPh sb="2" eb="4">
+      <t>カゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複勝上限オッズ</t>
+    <rPh sb="0" eb="2">
+      <t>フクショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録時刻</t>
+    <rPh sb="0" eb="4">
+      <t>キロクジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発走残り時間</t>
+    <rPh sb="0" eb="3">
+      <t>ハッソウノコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nar_odds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一意</t>
+    <rPh sb="0" eb="2">
+      <t>イチイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加日時(created_at)や更新日時(updated_at)など記録用の時間を扱うカラムはTIMESTAMP型を使用</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>キロクヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -974,28 +1015,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1015,8 +1041,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1024,10 +1053,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1343,42 +1384,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13D9F54-3FF7-4C53-83ED-4684CE0B1C5F}">
-  <dimension ref="B2:J103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="17" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="25" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="17" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="30" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="4.25" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="17" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="30" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1392,1205 +1435,1314 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="16">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="18" t="s">
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14">
+        <v>2</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="24">
-        <v>12</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="19">
-        <v>2</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="24">
-        <v>2</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E103" xr:uid="{B579FC13-31F1-4F58-AAE5-DB52C20BA751}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:F103">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F103" xr:uid="{D6430431-600A-4043-963B-7D56EC94944E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G103">
       <formula1>"○,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C103" xr:uid="{7661D5BC-9989-43F9-9A94-4F201A52F738}">
-      <formula1>"VARCHAR,TINYINT,TINYINT UNSIGNED,SMALLINT,SMALLINT UNSIGNED,MEDIUMINT,MEDIUMINT UNSIGNED,INT,INT UNSIGNED,BIGINT,BIGINT UNSIGNED,FLOAT,DATE,DATETIME,TIMESTUMP"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C103">
+      <formula1>"VARCHAR,TINYINT,TINYINT UNSIGNED,SMALLINT,SMALLINT UNSIGNED,MEDIUMINT,MEDIUMINT UNSIGNED,INT,INT UNSIGNED,BIGINT,BIGINT UNSIGNED,FLOAT,DATE,DATETIME,TIMESTAMP"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2599,11 +2751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92179C32-D57D-4F56-A8BC-C7DBC824516E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D53" sqref="D53:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2615,42 +2767,42 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
@@ -2659,14 +2811,14 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="7"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2730,7 +2882,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2779,7 +2931,7 @@
       <c r="B28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2787,18 +2939,18 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="10" t="s">
-        <v>81</v>
+      <c r="B30" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="10" t="s">
-        <v>80</v>
+      <c r="B32" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
@@ -2808,14 +2960,14 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="2"/>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
@@ -2824,11 +2976,11 @@
       <c r="C36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
     </row>
     <row r="37" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="6" t="s">
@@ -2837,32 +2989,32 @@
       <c r="C37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
     </row>
     <row r="38" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2874,19 +3026,19 @@
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="2"/>
       <c r="C44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
@@ -2895,7 +3047,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.4">
@@ -2906,61 +3058,61 @@
     <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
     </row>
     <row r="51" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
     </row>
     <row r="52" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B52" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="C52" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" spans="2:6" ht="75" x14ac:dyDescent="0.4">
       <c r="B53" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+        <v>107</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B55" s="10" t="s">
-        <v>76</v>
+      <c r="B55" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B56" s="10" t="s">
-        <v>77</v>
+      <c r="B56" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
